--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/Incentive.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/Incentive.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D_Cara\eFMS - Cara\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lynne.loc\Desktop\eFMSSource\WebAPI\eFMS.API.SystemWeb\eFMS.API.ReportData\eFMS.API.ReportData\FormatExcel\TemplateExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,290 +15,14 @@
     <sheet name="3" sheetId="26" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3'!$A$3:$F$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3'!$A$3:$E$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Cara Oanh</author>
-  </authors>
-  <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Cara Oanh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Hiển thị tháng của những lô hàng đã được filter để xuất report, nếu từ 2 tháng trở lên sẽ cách nhau bằng dấu "-"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Cara Oanh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Phân loại những lô hàng theo điều kiện filter theo tháng của Service Date tương ứng</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Cara Oanh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Job ID</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Cara Oanh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Customer (HBL)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Cara Oanh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-MBL No</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Cara Oanh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-HBL No</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Cara Oanh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-= Total Buying USD - Total Selling USD - Commission USD
-Tỷ giá quy đổi sẽ lấy theo tỷ giá chốt cuối cùng tương ứng của từng charge</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A19" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Cara Oanh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-20000: hiển thị theo tỷ giá đã nhập
-Template này đang lấy ví dụ tỷ giá là 20000</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E19" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Cara Oanh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Total x 10% x Ex Rate đã nhập</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B27" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Cara Oanh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Curren User: Full Name EN</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C27" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Cara Oanh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Manager Dept của Current User</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>CLIENT</t>
   </si>
@@ -312,9 +36,6 @@
     <t xml:space="preserve">TOTAL (USD) </t>
   </si>
   <si>
-    <t>De nghi thanh toan VND: (USDx10% x 20000)</t>
-  </si>
-  <si>
     <t xml:space="preserve">        DE NGHI THANH TOAN COMMISSION </t>
   </si>
   <si>
@@ -324,52 +45,49 @@
     <t>Approved by</t>
   </si>
   <si>
-    <t>Chloe Thao</t>
-  </si>
-  <si>
-    <t>Kimberly Oanh</t>
-  </si>
-  <si>
     <t>Manager</t>
   </si>
   <si>
     <t xml:space="preserve">Chief of Accounting </t>
   </si>
   <si>
-    <t>Stacy Oanh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ellen Hanh </t>
-  </si>
-  <si>
-    <t>AE2005/0300</t>
-  </si>
-  <si>
-    <t>ATT</t>
-  </si>
-  <si>
-    <t>933-73742152</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>MAR - APR , 2020</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>AE2005/0301</t>
-  </si>
-  <si>
-    <t>APC</t>
-  </si>
-  <si>
-    <t>933-73742153</t>
-  </si>
-  <si>
     <t>HBL</t>
+  </si>
+  <si>
+    <t>{Profit}</t>
+  </si>
+  <si>
+    <t>{MBL}</t>
+  </si>
+  <si>
+    <t>{ServiceDate}</t>
+  </si>
+  <si>
+    <t>{CurrentUser}</t>
+  </si>
+  <si>
+    <t>{ManagerDep}</t>
+  </si>
+  <si>
+    <t>{ForMonth}</t>
+  </si>
+  <si>
+    <t>{JobId}</t>
+  </si>
+  <si>
+    <t>{CustomerName}</t>
+  </si>
+  <si>
+    <t>{HBL}</t>
+  </si>
+  <si>
+    <t>{TotalUSD}</t>
+  </si>
+  <si>
+    <t>{TotalAmount}</t>
+  </si>
+  <si>
+    <t>{DeNghi}</t>
   </si>
 </sst>
 </file>
@@ -384,7 +102,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="General_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,29 +217,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -676,7 +375,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -703,10 +402,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -732,31 +428,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1133,12 +805,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
@@ -1147,23 +817,22 @@
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="18.5703125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18">
       <c r="B1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="26"/>
+        <v>4</v>
+      </c>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="18">
-      <c r="B2" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="40"/>
+      <c r="B2" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3"/>
@@ -1174,281 +843,153 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="15" customFormat="1">
+    <row r="4" spans="1:7" s="14" customFormat="1">
       <c r="A4" s="10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:7" s="15" customFormat="1">
-      <c r="A5" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="28" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="14" customFormat="1">
+      <c r="A5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="27">
-        <v>4</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="1:7" s="15" customFormat="1">
-      <c r="A6" s="29"/>
+      <c r="B5" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" s="14" customFormat="1">
+      <c r="A6" s="31" t="s">
+        <v>3</v>
+      </c>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="1:7" s="15" customFormat="1">
-      <c r="A7" s="29"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="B7" s="35"/>
-      <c r="C7" s="28"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="28"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:7" s="15" customFormat="1">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:7" s="15" customFormat="1">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:7" s="15" customFormat="1">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" s="15" customFormat="1">
-      <c r="A12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:7" s="15" customFormat="1">
-      <c r="A13" s="27" t="s">
+      <c r="E7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="27">
-        <v>25</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:7" s="15" customFormat="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="1:7" s="15" customFormat="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:7" s="15" customFormat="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:8" s="15" customFormat="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="1:8" s="15" customFormat="1">
-      <c r="A18" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="7">
-        <f>SUM(E5:E17)</f>
-        <v>29</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="1:8" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="18">
-        <f>E18*0.1*20000</f>
-        <v>58000.000000000007</v>
-      </c>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="B22" s="21" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="22"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="21"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="21"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="B27" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="22" t="s">
+      <c r="F10" s="13"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="19"/>
-    </row>
-    <row r="28" spans="1:8" ht="18">
-      <c r="A28" s="23"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
+      <c r="C15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:7" ht="18">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F19"/>
+  <autoFilter ref="A3:E7"/>
   <mergeCells count="3">
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/Incentive.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/Incentive.xlsx
@@ -375,7 +375,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -387,7 +387,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -403,7 +402,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -425,9 +423,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -440,6 +435,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -460,6 +460,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -812,7 +815,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.140625" style="1" customWidth="1"/>
@@ -822,17 +825,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="23"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:7" ht="18">
       <c r="B2" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="30"/>
-      <c r="D2" s="29"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3"/>
@@ -849,8 +852,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="14" customFormat="1">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:7" s="13" customFormat="1">
+      <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5"/>
@@ -860,46 +863,46 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" s="14" customFormat="1">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:7" s="13" customFormat="1">
+      <c r="A5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="27" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" s="14" customFormat="1">
+    <row r="6" spans="1:7" s="13" customFormat="1">
       <c r="A6" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="28" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" s="8" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="34" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="36"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="25"/>
+      <c r="E7" s="29" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="1"/>
@@ -909,78 +912,78 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="19"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="19"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="19"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="18"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="18"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" ht="18">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:E7"/>
